--- a/Assets/BOM/BOM_OpenDrone_FC_F405_HW_v2.0.xlsx
+++ b/Assets/BOM/BOM_OpenDrone_FC_F405_HW_v2.0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
   <si>
     <t xml:space="preserve">Reference</t>
   </si>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">Package_SO:SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.29x3mm</t>
   </si>
   <si>
-    <t xml:space="preserve">R1,R3,R14</t>
+    <t xml:space="preserve">R1,R18</t>
   </si>
   <si>
     <t xml:space="preserve">10k</t>
@@ -292,16 +292,22 @@
     <t xml:space="preserve">2k2</t>
   </si>
   <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,7k</t>
+  </si>
+  <si>
     <t xml:space="preserve">R4</t>
   </si>
   <si>
     <t xml:space="preserve">Rf_Cur</t>
   </si>
   <si>
-    <t xml:space="preserve">R5,R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24k</t>
+    <t xml:space="preserve">R5,R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k</t>
   </si>
   <si>
     <t xml:space="preserve">R6</t>
@@ -316,12 +322,6 @@
     <t xml:space="preserve">4.7k</t>
   </si>
   <si>
-    <t xml:space="preserve">R9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k</t>
-  </si>
-  <si>
     <t xml:space="preserve">R10</t>
   </si>
   <si>
@@ -340,7 +340,19 @@
     <t xml:space="preserve">29.4k</t>
   </si>
   <si>
-    <t xml:space="preserve">R16,R17,R25</t>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,3k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16,R17,R19,R25</t>
   </si>
   <si>
     <t xml:space="preserve">470R</t>
@@ -545,7 +557,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1093,7 +1105,7 @@
         <v>9</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,7 +1156,7 @@
         <v>9</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,7 +1173,7 @@
         <v>9</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,7 +1207,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,7 +1275,41 @@
         <v>9</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
